--- a/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
+++ b/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Suppliers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3A813-31C9-468B-A75F-90C6F19BC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FA0D1-2326-4AA1-9E79-65E64662F065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>SL. No</t>
   </si>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +782,12 @@
       <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
+++ b/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Suppliers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FA0D1-2326-4AA1-9E79-65E64662F065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4D4CF-A235-425A-BFFE-2ABA251E6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,22 +113,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">It shows Company details </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Checkbox of Active, Company market dropdown, Company name, Also known as, Company Reg.No, Address, Logo, Supplier email, Supplier Phone, Short description, Long description, Company time zone, Subscription information, Send subscription related notifications to, Pricing, Inventory, Email upcoming delivery schedule to, Payments, Notifications, Activity reports, Cancel and Save changes and Create user"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Once click the suppliers menu it should display 2 tabs they are</t>
     </r>
     <r>
@@ -205,6 +189,22 @@
   </si>
   <si>
     <t>Currently we do not have the “GST/tax registration number” field for suppliers, only buyer companies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It shows Company details </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Checkbox of Active, Company market dropdown, Company name, Also known as, Company Reg.No, Address, Logo, Supplier email, Supplier Phone, Short description, Long description, Company time zone, Subscription information, Send subscription related notifications to, Pricing, Inventory, Email upcoming delivery schedule to, Payments, Notifications, Activity reports, Cancel , Save supplier only and Save supplier and Create new user"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
@@ -757,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>12</v>
@@ -777,13 +777,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>12</v>

--- a/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
+++ b/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Suppliers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4D4CF-A235-425A-BFFE-2ABA251E6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F77E35-214D-4041-BF0E-10E77ECF4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>SL. No</t>
   </si>
@@ -204,6 +204,105 @@
         <scheme val="minor"/>
       </rPr>
       <t>"Checkbox of Active, Company market dropdown, Company name, Also known as, Company Reg.No, Address, Logo, Supplier email, Supplier Phone, Short description, Long description, Company time zone, Subscription information, Send subscription related notifications to, Pricing, Inventory, Email upcoming delivery schedule to, Payments, Notifications, Activity reports, Cancel , Save supplier only and Save supplier and Create new user"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Actions dropdown value should be like                              1.Edit general &amp; company details (in blue text for all)                              2.Edit default settings                                                                                             3.View outlets                                                                                                             4.View catalogue                                                                                                       5.Edit blackout dates for delivery                                                                      6.Edit Directory settings                                                                                          7.Supplier Teams                                                                                                        8.Buyer companies                                                                                                     9.Upload subscription invoice                                                                               10.Disable                                                                                                                          11.Delete permanently</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions -&gt; View Catalogue</t>
+    </r>
+  </si>
+  <si>
+    <t>Once select the Catalogue and hit on the SKU ,Edit SKU page will be open in New tab</t>
+  </si>
+  <si>
+    <t>It gets displayed the New tab for selected Catalogue SKU page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions -&gt; View outlets &gt; Actions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the New tab if select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Manage settings, Manage marketlist, Outlet tags &amp; custom name'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Manage settings", "Manage marketlist", "Outlet tags &amp; custom name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be open in New tab if we click</t>
     </r>
   </si>
 </sst>
@@ -211,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +329,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +896,66 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
+++ b/Admin/Suppliers/Manual testcases/Supplier lising page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Suppliers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F77E35-214D-4041-BF0E-10E77ECF4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5FB2FA-87B4-465D-984B-7192B0E817BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,6 +192,105 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Actions dropdown value should be like                              1.Edit general &amp; company details (in blue text for all)                              2.Edit default settings                                                                                             3.View outlets                                                                                                             4.View catalogue                                                                                                       5.Edit blackout dates for delivery                                                                      6.Edit Directory settings                                                                                          7.Supplier Teams                                                                                                        8.Buyer companies                                                                                                     9.Upload subscription invoice                                                                               10.Disable                                                                                                                          11.Delete permanently</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions -&gt; View Catalogue</t>
+    </r>
+  </si>
+  <si>
+    <t>Once select the Catalogue and hit on the SKU ,Edit SKU page will be open in New tab</t>
+  </si>
+  <si>
+    <t>It gets displayed the New tab for selected Catalogue SKU page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions -&gt; View outlets &gt; Actions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the New tab if select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Manage settings, Manage marketlist, Outlet tags &amp; custom name'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once select the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Manage settings", "Manage marketlist", "Outlet tags &amp; custom name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be open in New tab if we click</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">It shows Company details </t>
     </r>
     <r>
@@ -203,106 +302,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Checkbox of Active, Company market dropdown, Company name, Also known as, Company Reg.No, Address, Logo, Supplier email, Supplier Phone, Short description, Long description, Company time zone, Subscription information, Send subscription related notifications to, Pricing, Inventory, Email upcoming delivery schedule to, Payments, Notifications, Activity reports, Cancel , Save supplier only and Save supplier and Create new user"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actions dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Actions dropdown value should be like                              1.Edit general &amp; company details (in blue text for all)                              2.Edit default settings                                                                                             3.View outlets                                                                                                             4.View catalogue                                                                                                       5.Edit blackout dates for delivery                                                                      6.Edit Directory settings                                                                                          7.Supplier Teams                                                                                                        8.Buyer companies                                                                                                     9.Upload subscription invoice                                                                               10.Disable                                                                                                                          11.Delete permanently</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actions -&gt; View Catalogue</t>
-    </r>
-  </si>
-  <si>
-    <t>Once select the Catalogue and hit on the SKU ,Edit SKU page will be open in New tab</t>
-  </si>
-  <si>
-    <t>It gets displayed the New tab for selected Catalogue SKU page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actions -&gt; View outlets &gt; Actions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed the New tab if select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Manage settings, Manage marketlist, Outlet tags &amp; custom name'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once select the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Manage settings", "Manage marketlist", "Outlet tags &amp; custom name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will be open in New tab if we click</t>
+      <t>"Checkbox of Active, Company market dropdown, Company name, Also known as, Company Reg.No, GST /Tax Reg.no,  Address, Logo, Supplier email, Supplier Phone, Short description, Long description, Company time zone, Subscription information, Send subscription related notifications to, Pricing, Inventory, Email upcoming delivery schedule to, Payments, Notifications, Activity reports, Cancel , Save supplier only and Save supplier and Create new user"</t>
     </r>
   </si>
 </sst>
@@ -424,16 +424,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>25</v>
@@ -904,10 +904,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
@@ -924,13 +924,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -944,13 +944,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
